--- a/03- General Pandas/Excel_Sample.xlsx
+++ b/03- General Pandas/Excel_Sample.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathias\Documents\GitHub\Udemy-python-for-finance-and-trading-algorithms\03- General Pandas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F78A286-269A-4C99-9CA3-CCA7D0295BA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +49,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,20 +95,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -420,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -437,7 +498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -454,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -469,6 +530,77 @@
       </c>
       <c r="E5">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CCF36A-3A40-47E0-8976-9024BCACB77B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
